--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.57223744093043</v>
+        <v>5.864463</v>
       </c>
       <c r="N2">
-        <v>3.57223744093043</v>
+        <v>17.593389</v>
       </c>
       <c r="O2">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108516</v>
       </c>
       <c r="P2">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108515</v>
       </c>
       <c r="Q2">
-        <v>67.86056415741663</v>
+        <v>128.137159904226</v>
       </c>
       <c r="R2">
-        <v>67.86056415741663</v>
+        <v>1153.234439138034</v>
       </c>
       <c r="S2">
-        <v>0.02269126669405804</v>
+        <v>0.03046733667212132</v>
       </c>
       <c r="T2">
-        <v>0.02269126669405804</v>
+        <v>0.03046733667212131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.69082523594717</v>
+        <v>2.691504</v>
       </c>
       <c r="N3">
-        <v>2.69082523594717</v>
+        <v>8.074512</v>
       </c>
       <c r="O3">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="P3">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="Q3">
-        <v>51.11668011430623</v>
+        <v>58.808739765408</v>
       </c>
       <c r="R3">
-        <v>51.11668011430623</v>
+        <v>529.278657888672</v>
       </c>
       <c r="S3">
-        <v>0.01709243410204994</v>
+        <v>0.013983029396274</v>
       </c>
       <c r="T3">
-        <v>0.01709243410204994</v>
+        <v>0.013983029396274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.763938583049881</v>
+        <v>1.106746666666667</v>
       </c>
       <c r="N4">
-        <v>0.763938583049881</v>
+        <v>3.32024</v>
       </c>
       <c r="O4">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="P4">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="Q4">
-        <v>14.51227811270008</v>
+        <v>24.18215863927111</v>
       </c>
       <c r="R4">
-        <v>14.51227811270008</v>
+        <v>217.63942775344</v>
       </c>
       <c r="S4">
-        <v>0.004852626515596518</v>
+        <v>0.005749822840400112</v>
       </c>
       <c r="T4">
-        <v>0.004852626515596518</v>
+        <v>0.005749822840400112</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.57223744093043</v>
+        <v>5.864463</v>
       </c>
       <c r="N5">
-        <v>3.57223744093043</v>
+        <v>17.593389</v>
       </c>
       <c r="O5">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108516</v>
       </c>
       <c r="P5">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108515</v>
       </c>
       <c r="Q5">
-        <v>1357.286146908561</v>
+        <v>2258.125965328431</v>
       </c>
       <c r="R5">
-        <v>1357.286146908561</v>
+        <v>20323.13368795588</v>
       </c>
       <c r="S5">
-        <v>0.4538503668818462</v>
+        <v>0.5369175037525649</v>
       </c>
       <c r="T5">
-        <v>0.4538503668818462</v>
+        <v>0.5369175037525649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.69082523594717</v>
+        <v>2.691504</v>
       </c>
       <c r="N6">
-        <v>2.69082523594717</v>
+        <v>8.074512</v>
       </c>
       <c r="O6">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="P6">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="Q6">
-        <v>1022.389994196968</v>
+        <v>1036.370264112048</v>
       </c>
       <c r="R6">
-        <v>1022.389994196968</v>
+        <v>9327.332377008433</v>
       </c>
       <c r="S6">
-        <v>0.3418675384107361</v>
+        <v>0.2464190854337462</v>
       </c>
       <c r="T6">
-        <v>0.3418675384107361</v>
+        <v>0.2464190854337462</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.763938583049881</v>
+        <v>1.106746666666667</v>
       </c>
       <c r="N7">
-        <v>0.763938583049881</v>
+        <v>3.32024</v>
       </c>
       <c r="O7">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="P7">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="Q7">
-        <v>290.2615721961894</v>
+        <v>426.1555380331823</v>
       </c>
       <c r="R7">
-        <v>290.2615721961894</v>
+        <v>3835.399842298641</v>
       </c>
       <c r="S7">
-        <v>0.09705788372849053</v>
+        <v>0.1013275482432302</v>
       </c>
       <c r="T7">
-        <v>0.09705788372849053</v>
+        <v>0.1013275482432302</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H8">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J8">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.57223744093043</v>
+        <v>5.864463</v>
       </c>
       <c r="N8">
-        <v>3.57223744093043</v>
+        <v>17.593389</v>
       </c>
       <c r="O8">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108516</v>
       </c>
       <c r="P8">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108515</v>
       </c>
       <c r="Q8">
-        <v>95.15229748668808</v>
+        <v>166.260335127777</v>
       </c>
       <c r="R8">
-        <v>95.15229748668808</v>
+        <v>1496.343016149993</v>
       </c>
       <c r="S8">
-        <v>0.03181709709654413</v>
+        <v>0.03953193288616536</v>
       </c>
       <c r="T8">
-        <v>0.03181709709654413</v>
+        <v>0.03953193288616535</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H9">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J9">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.69082523594717</v>
+        <v>2.691504</v>
       </c>
       <c r="N9">
-        <v>2.69082523594717</v>
+        <v>8.074512</v>
       </c>
       <c r="O9">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="P9">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="Q9">
-        <v>71.67446385334473</v>
+        <v>76.30542763041599</v>
       </c>
       <c r="R9">
-        <v>71.67446385334473</v>
+        <v>686.748848673744</v>
       </c>
       <c r="S9">
-        <v>0.02396656135479706</v>
+        <v>0.01814323928565081</v>
       </c>
       <c r="T9">
-        <v>0.02396656135479706</v>
+        <v>0.01814323928565081</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>26.63661054454</v>
+        <v>28.350479</v>
       </c>
       <c r="H10">
-        <v>26.63661054454</v>
+        <v>85.05143699999999</v>
       </c>
       <c r="I10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="J10">
-        <v>0.06258788366722257</v>
+        <v>0.06513567366166337</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.763938583049881</v>
+        <v>1.106746666666667</v>
       </c>
       <c r="N10">
-        <v>0.763938583049881</v>
+        <v>3.32024</v>
       </c>
       <c r="O10">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="P10">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="Q10">
-        <v>20.34873451664741</v>
+        <v>31.37679813165333</v>
       </c>
       <c r="R10">
-        <v>20.34873451664741</v>
+        <v>282.39118318488</v>
       </c>
       <c r="S10">
-        <v>0.006804225215881381</v>
+        <v>0.007460501489847218</v>
       </c>
       <c r="T10">
-        <v>0.006804225215881381</v>
+        <v>0.007460501489847217</v>
       </c>
     </row>
   </sheetData>
